--- a/medicine/Sexualité et sexologie/La_Vie_sexuelle_des_Belges_1950-1978/La_Vie_sexuelle_des_Belges_1950-1978.xlsx
+++ b/medicine/Sexualité et sexologie/La_Vie_sexuelle_des_Belges_1950-1978/La_Vie_sexuelle_des_Belges_1950-1978.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Vie sexuelle des Belges 1950-1978[1] est un film réalisé par Jan Bucquoy et produit par Francis De Smet, sorti en 1994. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Vie sexuelle des Belges 1950-1978 est un film réalisé par Jan Bucquoy et produit par Francis De Smet, sorti en 1994. 
 C'est un film qui parle de la jeunesse d'un écrivain qui quitte son village natal (Harelbeke) en Flandre profonde pour tenter sa chance dans la capitale de la Belgique, Bruxelles. Il sera déçu sur le plan sentimental autant que sur le plan professionnel. Dans ses moments de solitude, il pensera à sa mère qui le tenait si tendrement dans ses bras quand il était encore un bébé...
 Il a remporté le prix André-Cavens du meilleur film belge de l'année 1994.
 </t>
@@ -513,11 +525,13 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Enfance : le film parle au début de la vie de famille flamande[2] mais après il parle du petit Jan en ville de province et le Jan adolescent à l'encontre d'aventures sexuelles : il est témoin à l'école des tracasseries de son premier amour sale culotte. Sa tante Marta[3] l'emmène voir le western[4] Johnny Guitare (1954) avec Joan Crawford qui restera pour lui l'emblème de la femme parfaite[5]. Johnny Guitare est une allusion à François Truffaut[6],[7]. Il ne sera tenté ni par le nationalisme flamand, ni par l'homosexualité: ceci est expliqué dans la scène au camping dans les champs de Dixmude avec le petit film de Laurel et Hardy Cavale en série. Là il refusera les attouchements d'un copain plus âgé, avec la tour d'Yser à l'arrière plan[8] qui fait figure de symbole du Flamingantisme. Il fait sa première conquête amoureuse lors d'un bal de village pendant lequel Will Tura chante : Ik ben zo eenzaam zonder jou (Je me sens si seul sans toi)...
-Mariage : et il rencontre sa première femme à l'université (ULB) pendant une distribution de tracts contre la guerre du Viêt Nam. Il se promènera avec elle sur le brise-lames de Blankenberge. Le mariage apporte un enfant mais pas le bonheur. Entre-temps, il reçoit des leçons de marxisme de sa maîtresse qui lit le Capital toute nue dans son canapé. La vie continue et le protagoniste tente sa chance dans la capitale de la Belgique dans les années 1960 avec le commencement de la liberté sexuelle : divorce, partouses, rencontres furtives, etc. Il fréquente le café d'artistes Le Dolle Mol[9] mais il se sent de plus en plus seul.
-Retour à sa mère : l'ange de la mort qui survient au décès de sa mère sur l'arrière fond musical du requiem du compositeur flamand Peter Benoit, lui réclame une pénitence et lui reproche son obstination pour le sexe. Elle lui révèle que Mozart considérait la mort comme une libération mais il lui répond qu'il doit d'abord terminer son livre. Le film se termine avec une prise de vue du bébé dans les mains de sa maman, comme dans la première scène où elle descend de l'escalier avec son bébé (une référence à Lacan et la fameuse histoire de Saint Augustin[10] qui voyait le frère de lait jaloux du bébé dans les bras de sa maman). On entend la chanson « Wherever you are, you will always be my Johnny Guitar » suivie par l'Hymne de l'Union soviétique qui renvoie au film suivant de l'hexalogie de La vie sexuelle des Belges : Camping Cosmos.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Enfance : le film parle au début de la vie de famille flamande mais après il parle du petit Jan en ville de province et le Jan adolescent à l'encontre d'aventures sexuelles : il est témoin à l'école des tracasseries de son premier amour sale culotte. Sa tante Marta l'emmène voir le western Johnny Guitare (1954) avec Joan Crawford qui restera pour lui l'emblème de la femme parfaite. Johnny Guitare est une allusion à François Truffaut,. Il ne sera tenté ni par le nationalisme flamand, ni par l'homosexualité: ceci est expliqué dans la scène au camping dans les champs de Dixmude avec le petit film de Laurel et Hardy Cavale en série. Là il refusera les attouchements d'un copain plus âgé, avec la tour d'Yser à l'arrière plan qui fait figure de symbole du Flamingantisme. Il fait sa première conquête amoureuse lors d'un bal de village pendant lequel Will Tura chante : Ik ben zo eenzaam zonder jou (Je me sens si seul sans toi)...
+Mariage : et il rencontre sa première femme à l'université (ULB) pendant une distribution de tracts contre la guerre du Viêt Nam. Il se promènera avec elle sur le brise-lames de Blankenberge. Le mariage apporte un enfant mais pas le bonheur. Entre-temps, il reçoit des leçons de marxisme de sa maîtresse qui lit le Capital toute nue dans son canapé. La vie continue et le protagoniste tente sa chance dans la capitale de la Belgique dans les années 1960 avec le commencement de la liberté sexuelle : divorce, partouses, rencontres furtives, etc. Il fréquente le café d'artistes Le Dolle Mol mais il se sent de plus en plus seul.
+Retour à sa mère : l'ange de la mort qui survient au décès de sa mère sur l'arrière fond musical du requiem du compositeur flamand Peter Benoit, lui réclame une pénitence et lui reproche son obstination pour le sexe. Elle lui révèle que Mozart considérait la mort comme une libération mais il lui répond qu'il doit d'abord terminer son livre. Le film se termine avec une prise de vue du bébé dans les mains de sa maman, comme dans la première scène où elle descend de l'escalier avec son bébé (une référence à Lacan et la fameuse histoire de Saint Augustin qui voyait le frère de lait jaloux du bébé dans les bras de sa maman). On entend la chanson « Wherever you are, you will always be my Johnny Guitar » suivie par l'Hymne de l'Union soviétique qui renvoie au film suivant de l'hexalogie de La vie sexuelle des Belges : Camping Cosmos.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Vie sexuelle des Belges 1950-1978
 Réalisation : Jan Bucquoy
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Henri Compère : Jan
 Noé Francq : Jan adolescent
@@ -630,11 +648,13 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ce film culte raconte avec une voix off tantôt ironique tantôt réaliste, les déboires d'un jeune écrivain qui s'approche de la vie d'une façon naïve. Un Pip dans Les Grandes Espérances de Charles Dickens ou un Julien dans Le Rouge et le Noir de Stendhal ? L'histoire se développe dans la perspective de la première personne et dans la progression d'un Bildungsroman comme David Copperfield[11]. Basé sur la bande dessinée écrite par Bucquoy et dessinée par Jean-Philippe Vidon: La vie de Jean-Pierre L'Heureux, Tout va bien [12],[13]. La voix-off donne un sentiment de stream of consciousness [14] et étale les états d'âme du protagoniste.
-Première partie de la trilogie La Vie sexuelle des Belges suivie par la deuxième partie : Camping Cosmos. La Vie sexuelle des Belges 1950-78 est un film qui marque une période d'après-guerre [15] où un optimisme chaleureux dominait la Belgique. Cet optimisme sera contrarié par la suite dans les films Camping Cosmos et Fermeture de l'usine Renault à Vilvoorde.
-La vie sexuelle est en fait une métonymie[16] de la vie sentimentale[17]. La chronique 1950-1978, qui est mentionnée dans le titre du film, parle surtout de l'enfance et de la vie d'un jeune homme qui fuit sa Flandre petit esprit pour commencer sa carrière dans la capitale belge. « des Belges » fait figure de style de taxinomie comme si « la vie sexuelle des Belges » serait différente des autres peuples. Il s'agit bien de « vie sexuelle » et non de sexualité tout court, le mot « vie » sous-entend un développement, une évolution. L'affiche du film représente les nouveaux mariés comme un couple classique des années cinquante en Belgique. Le mot « sexuel » cache les mots « politique », « art », « désir », « communication ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce film culte raconte avec une voix off tantôt ironique tantôt réaliste, les déboires d'un jeune écrivain qui s'approche de la vie d'une façon naïve. Un Pip dans Les Grandes Espérances de Charles Dickens ou un Julien dans Le Rouge et le Noir de Stendhal ? L'histoire se développe dans la perspective de la première personne et dans la progression d'un Bildungsroman comme David Copperfield. Basé sur la bande dessinée écrite par Bucquoy et dessinée par Jean-Philippe Vidon: La vie de Jean-Pierre L'Heureux, Tout va bien ,. La voix-off donne un sentiment de stream of consciousness  et étale les états d'âme du protagoniste.
+Première partie de la trilogie La Vie sexuelle des Belges suivie par la deuxième partie : Camping Cosmos. La Vie sexuelle des Belges 1950-78 est un film qui marque une période d'après-guerre  où un optimisme chaleureux dominait la Belgique. Cet optimisme sera contrarié par la suite dans les films Camping Cosmos et Fermeture de l'usine Renault à Vilvoorde.
+La vie sexuelle est en fait une métonymie de la vie sentimentale. La chronique 1950-1978, qui est mentionnée dans le titre du film, parle surtout de l'enfance et de la vie d'un jeune homme qui fuit sa Flandre petit esprit pour commencer sa carrière dans la capitale belge. « des Belges » fait figure de style de taxinomie comme si « la vie sexuelle des Belges » serait différente des autres peuples. Il s'agit bien de « vie sexuelle » et non de sexualité tout court, le mot « vie » sous-entend un développement, une évolution. L'affiche du film représente les nouveaux mariés comme un couple classique des années cinquante en Belgique. Le mot « sexuel » cache les mots « politique », « art », « désir », « communication ».
 Ce premier film montre 28 ans de la vie d'un homme qui essaie de trouver la meilleure réponse à la seule question philosophique vraiment importante, comme l'auteur Albert Camus a écrit (en particulier dans Le Mythe de Sisyphe) : la vie vaut-elle la peine d'être vécue ?</t>
         </is>
       </c>
@@ -663,10 +683,12 @@
           <t>Comparaison avec d'autres films</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Avec des clins d'œil aux films de Godard : Masculin féminin (1966), par exemple dans la scène des deux amoureux au café : la femme qui mange une pomme (symbole d'Ève du paradis, malum en latin étant un homonyme pour pomme et pour le mal), et à La Chinoise (1967) avec la scène de la distribution de tracts à sa future femme à l'ULB. Le film fait penser à Huit et demi (Otto e mezzo ou 8½) (1963)[18] de Fellini par son introspection, sa fantaisie autodérisoire et ses images du passé et de la jeunesse ainsi qu'à Amarcord (1973) du même réalisateur. 
-La référence au film Les Quatre Cents Coups [19] est évidente si on sait que Bucquoy a été moniteur de mineurs placés sous le contrôle de la justice[20]. La différence est que Truffaut a besoin de la série de cinq films du cycle Antoine Doinel pour en arriver au divorce, qui par contre chez Bucquoy, est au milieu de La vie sexuelle des Belges 1950-78. Il a donc le temps de développer le côté provocateur-anarchiste dans les films suivants: Camping Cosmos comme animateur culturel sur une plage belge à Westende et dans Fermeture de l'usine Renault à Vilvoorde. Peur du réalisateur, qui au moment de la sortie du film s'approchait de la cinquantaine, de ne pas aboutir son projet de la trilogie? Finalement le film fait penser à La Maman et la Putain par le jeu des couples et les dialogues subversifs[20].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Avec des clins d'œil aux films de Godard : Masculin féminin (1966), par exemple dans la scène des deux amoureux au café : la femme qui mange une pomme (symbole d'Ève du paradis, malum en latin étant un homonyme pour pomme et pour le mal), et à La Chinoise (1967) avec la scène de la distribution de tracts à sa future femme à l'ULB. Le film fait penser à Huit et demi (Otto e mezzo ou 8½) (1963) de Fellini par son introspection, sa fantaisie autodérisoire et ses images du passé et de la jeunesse ainsi qu'à Amarcord (1973) du même réalisateur. 
+La référence au film Les Quatre Cents Coups  est évidente si on sait que Bucquoy a été moniteur de mineurs placés sous le contrôle de la justice. La différence est que Truffaut a besoin de la série de cinq films du cycle Antoine Doinel pour en arriver au divorce, qui par contre chez Bucquoy, est au milieu de La vie sexuelle des Belges 1950-78. Il a donc le temps de développer le côté provocateur-anarchiste dans les films suivants: Camping Cosmos comme animateur culturel sur une plage belge à Westende et dans Fermeture de l'usine Renault à Vilvoorde. Peur du réalisateur, qui au moment de la sortie du film s'approchait de la cinquantaine, de ne pas aboutir son projet de la trilogie? Finalement le film fait penser à La Maman et la Putain par le jeu des couples et les dialogues subversifs.
 Comme dans Mon oncle d'Amérique La vie sexuelle des Belges se déroule en permanence sur trois niveaux : l'histoire racontée, les représentations mentales des protagonistes influencées par le cinéma et par leurs souvenirs propres, et des images d'expériences des protagonistes n'ayant pas de rapport évident sur le moment, mais qui deviennent éclairantes ou sont simplement absurdes.</t>
         </is>
       </c>
@@ -695,11 +717,48 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Il reçoit le prix André-Cavens de l’Union de la critique de cinéma (UCC) en 1994. Le film fut bien accueilli par la critique et le public d'amateurs de cinéma d'auteur. Il est vendu dans seize pays entre autres le Royaume-Uni et dans le circuit d’art cinema de New York[20].
-Accueil critique
-"The cinematography is an unusual blend of the surreal and the mundane, infused with a quirky comic style which flitters between self-mockery and farce. Bucquoy's portrait of his own mother provides the film with its most enduring image, the possessive house-proud woman who casually quips when she notices her husband has died, "it isn't time", and repeatedly states when she finds a way to save money: "it's cheaper that way". If the film is an accurate reflection of the truth, Bucquoy must have had one Hell of an upbringing...". (James Travers 2002, voir lien externe).
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçoit le prix André-Cavens de l’Union de la critique de cinéma (UCC) en 1994. Le film fut bien accueilli par la critique et le public d'amateurs de cinéma d'auteur. Il est vendu dans seize pays entre autres le Royaume-Uni et dans le circuit d’art cinema de New York.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Vie_sexuelle_des_Belges_1950-1978</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Vie_sexuelle_des_Belges_1950-1978</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>"The cinematography is an unusual blend of the surreal and the mundane, infused with a quirky comic style which flitters between self-mockery and farce. Bucquoy's portrait of his own mother provides the film with its most enduring image, the possessive house-proud woman who casually quips when she notices her husband has died, "it isn't time", and repeatedly states when she finds a way to save money: "it's cheaper that way". If the film is an accurate reflection of the truth, Bucquoy must have had one Hell of an upbringing...". (James Travers 2002, voir lien externe).
 "Funny and poignant. This is the story of the first 28 years in the life of a Flemisch working class boy. A witty, charming and tender satire of sexual manners by the Belgian enfant terrible, Jan Bucquoy. Suggesting that his interest in sex began at his mothers breast, the film traces Jan's sexual development. Growing up in a small town with bickering parents, he feels suffocated despite the distractions provided by beautiful women. Escaping to Brussels in the 60's he comes to the peak of this sexual and political activity. His excessive indulgence in sex continues to distract him from the great exploits he dreams of...". (Trevor Johnston, Time Out).
 "Slice of pervy comedy". (Q magazine).
 "Includes one of the funniest sex scenes on celluloid". (Face).
